--- a/mini_dataset/manual.xlsx
+++ b/mini_dataset/manual.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="44">
   <si>
     <t xml:space="preserve">Inisialisasi User = </t>
   </si>
@@ -138,9 +138,6 @@
     <t>{4,3}</t>
   </si>
   <si>
-    <t>{2,3}</t>
-  </si>
-  <si>
     <t>MATRIX SIMILARITAS ITEM * UR</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>SUM SQUARE ROOT Suj * Wu2</t>
+  </si>
+  <si>
+    <t>{3,1}</t>
+  </si>
+  <si>
+    <t>akhir</t>
   </si>
 </sst>
 </file>
@@ -215,19 +218,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,15 +576,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -923,12 +927,12 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -949,11 +953,11 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1019,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="C12:G12" si="0">F$4-$H$4</f>
+        <f t="shared" ref="F12:G12" si="0">F$4-$H$4</f>
         <v>-0.5</v>
       </c>
       <c r="G12">
@@ -1062,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:G13" si="1">C$5-$H$5</f>
+        <f t="shared" ref="C13:E13" si="1">C$5-$H$5</f>
         <v>1</v>
       </c>
       <c r="D13">
@@ -1173,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="C15:G15" si="3">D$7-$H$7</f>
+        <f t="shared" ref="D15:F15" si="3">D$7-$H$7</f>
         <v>0.5</v>
       </c>
       <c r="E15">
@@ -1210,8 +1214,8 @@
         <v>0.83333333333333315</v>
       </c>
       <c r="Q15">
-        <f>SQRT(G14*G14)</f>
-        <v>0.33333333333333348</v>
+        <f>SQRT(E14*E14)</f>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1244,15 +1248,15 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="H17" s="6" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="H17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
       <c r="K17" t="s">
         <v>23</v>
       </c>
@@ -1318,10 +1322,10 @@
       </c>
       <c r="D19">
         <f>N$3/(N$12*N$21)</f>
-        <v>-0.59279591824365807</v>
+        <v>-0.70367919541366775</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" ref="D19:G19" si="4">O$3/(O$12*O$21)</f>
+        <f t="shared" ref="E19:F19" si="4">O$3/(O$12*O$21)</f>
         <v>0.41216786985544668</v>
       </c>
       <c r="F19">
@@ -1335,11 +1339,11 @@
       <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1426,23 +1430,27 @@
         <v>18</v>
       </c>
       <c r="L21">
-        <f>SQRT((B11*B11)+(B12*B12)+(B14*B14))</f>
+        <f>L12</f>
         <v>1.6158932858054431</v>
       </c>
       <c r="M21">
-        <f>SQRT(C14*C14)</f>
+        <f>L13</f>
         <v>1.3333333333333335</v>
       </c>
       <c r="N21">
-        <v>0.92796072713833699</v>
+        <f>L14</f>
+        <v>0.78173595997057166</v>
       </c>
       <c r="O21">
+        <f>L15</f>
         <v>0.83333333333333315</v>
       </c>
       <c r="P21">
+        <f>L16</f>
         <v>2.2973414586817036</v>
       </c>
       <c r="Q21">
+        <f>L17</f>
         <v>0.60092521257733167</v>
       </c>
     </row>
@@ -1472,7 +1480,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>-1.9999999999999984</v>
+        <v>-1</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -1481,21 +1489,27 @@
         <v>19</v>
       </c>
       <c r="L22">
+        <f>M12</f>
         <v>0.33333333333333348</v>
       </c>
       <c r="M22">
+        <f>M13</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="N22">
+        <f>M14</f>
         <v>0.33333333333333348</v>
       </c>
       <c r="O22">
+        <f>M15</f>
         <v>1.2018504251546629</v>
       </c>
       <c r="P22">
+        <f>M16</f>
         <v>1.6666666666666665</v>
       </c>
       <c r="Q22">
+        <f>M17</f>
         <v>0.33333333333333348</v>
       </c>
     </row>
@@ -1534,21 +1548,27 @@
         <v>20</v>
       </c>
       <c r="L23">
+        <f>N12</f>
         <v>1.6158932858054431</v>
       </c>
       <c r="M23">
+        <f>N13</f>
         <v>1.3333333333333335</v>
       </c>
       <c r="N23">
+        <f>N14</f>
         <v>0.92796072713833699</v>
       </c>
       <c r="O23">
+        <f>N15</f>
         <v>0.83333333333333315</v>
       </c>
       <c r="P23">
+        <f>N16</f>
         <v>2.3511226632776472</v>
       </c>
       <c r="Q23">
+        <f>N17</f>
         <v>0.60092521257733167</v>
       </c>
     </row>
@@ -1558,19 +1578,19 @@
       </c>
       <c r="B24">
         <f>L$8/(L$17*L$26)</f>
-        <v>-0.38461538461538397</v>
+        <v>-0.38461538461538414</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:G24" si="9">M$8/(M$17*M$26)</f>
+        <f>M$8/(M$17*M$26)</f>
         <v>1</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D24:G24" si="9">N$8/(N$17*N$26)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="E24">
         <f t="shared" si="9"/>
-        <v>-1.9999999999999984</v>
+        <v>-1</v>
       </c>
       <c r="F24">
         <f t="shared" si="9"/>
@@ -1581,27 +1601,33 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
       </c>
       <c r="L24">
+        <f>O12</f>
         <v>1.5365907428821479</v>
       </c>
       <c r="M24">
+        <f>O13</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="N24">
+        <f>O14</f>
         <v>0.60092521257733167</v>
       </c>
       <c r="O24">
+        <f>O15</f>
         <v>1.3017082793177757</v>
       </c>
       <c r="P24">
+        <f>O16</f>
         <v>2.2422706745122847</v>
       </c>
       <c r="Q24">
+        <f>O17</f>
         <v>0.33333333333333348</v>
       </c>
     </row>
@@ -1610,48 +1636,60 @@
         <v>22</v>
       </c>
       <c r="L25">
+        <f>P12</f>
         <v>1.6158932858054431</v>
       </c>
       <c r="M25">
+        <f>P13</f>
         <v>1.3333333333333335</v>
       </c>
       <c r="N25">
+        <f>P14</f>
         <v>0.92796072713833699</v>
       </c>
       <c r="O25">
+        <f>P15</f>
         <v>0.83333333333333315</v>
       </c>
       <c r="P25">
+        <f>P16</f>
         <v>2.3511226632776472</v>
       </c>
       <c r="Q25">
+        <f>P17</f>
         <v>0.60092521257733167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="8"/>
       <c r="K26" t="s">
         <v>23</v>
       </c>
       <c r="L26">
-        <v>0.600925212577332</v>
+        <f>Q12</f>
+        <v>0.60092521257733167</v>
       </c>
       <c r="M26">
+        <f>Q13</f>
         <v>1.3333333333333335</v>
       </c>
       <c r="N26">
+        <f>Q14</f>
         <v>0.60092521257733167</v>
       </c>
       <c r="O26">
-        <v>0.33333333333333348</v>
+        <f>Q15</f>
+        <v>0.66666666666666652</v>
       </c>
       <c r="P26">
+        <f>Q16</f>
         <v>1.740051084818425</v>
       </c>
       <c r="Q26">
+        <f>Q17</f>
         <v>0.60092521257733167</v>
       </c>
     </row>
@@ -1678,6 +1716,14 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
+      </c>
+      <c r="C28">
+        <f>((C19*B3)+(C21*D3))/(ABS(C19)+ABS(C21))</f>
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <f>((G21*D3)+(G19*B3))/(ABS(G21)+ABS(G19))</f>
+        <v>0.77777777777777946</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1716,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1776,7 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1785,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1747,12 +1793,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1769,7 +1815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1791,7 +1837,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1860,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1905,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1882,12 +1928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1912,185 +1958,173 @@
       <c r="I13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>0.2</v>
       </c>
       <c r="C14">
-        <f>((1-$B$2)*$B14)+($B$2*((B15*B7)+(B16*B8)+(B17*B9)+(B18*B10)))</f>
-        <v>0.23333333333333334</v>
+        <v>0.22</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:I14" si="0">((1-$B$2)*C$14)+($B$2*((C15*$B$7)+(C16*$B$8)+(C17*$B$9)+(C18*$B$10)))</f>
-        <v>0.24444444444444446</v>
+        <v>0.2235</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.24814814814814815</v>
+        <v>0.22133611111111101</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.24938271604938272</v>
+        <v>0.217290324074074</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.24979423868312756</v>
+        <v>0.21266898688271599</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0.24993141289437584</v>
+        <v>0.20792048704989699</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.24997713763145857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.20319803768282799</v>
+      </c>
+      <c r="J14">
+        <f>I14*I14</f>
+        <v>4.1289442518151982E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>0.2</v>
       </c>
       <c r="C15">
-        <f>((1-$B$2)*$B15)+($B$2*((B14*C6)+(B17*C9)+(B18*C10)))</f>
-        <v>0.19666666666666666</v>
+        <v>0.19</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:I15" si="1">((1-$B$2)*C$15)+($B$2*((C14*$C$6)+(C17*$C$9)+(C18*$C$10)))</f>
-        <v>0.2072222222222222</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0.21521604938271605</v>
+        <v>0.19634722222222201</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0.21982253086419754</v>
+        <v>0.19587560185185099</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0.22228180727023317</v>
+        <v>0.193570614969135</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>0.22356768451836606</v>
+        <v>0.190284732651749</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0.22423976869316159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.18652520393239899</v>
+      </c>
+      <c r="J15">
+        <f>I15*I15</f>
+        <v>3.479165170202303E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>0.2</v>
       </c>
       <c r="C16">
-        <f>((1-$B$2)*$B16)+($B$2*((B14*D6)+(B17*D9)))</f>
-        <v>0.12666666666666668</v>
+        <v>0.12666666666666701</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:I16" si="2">((1-$B$2)*C$16)+($B$2*((C14*$D$6)+(C17*$D$9)))</f>
-        <v>9.870370370370371E-2</v>
+        <v>9.7759259259259906E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>8.6682098765432106E-2</v>
+        <v>8.4457407407408203E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>8.1015946502057623E-2</v>
+        <v>7.7354794238683994E-2</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
-        <v>7.8178083561957018E-2</v>
+        <v>7.3008828189301295E-2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>7.6703615588324947E-2</v>
+        <v>7.0002131407179702E-2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
-        <v>7.592098332793526E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.7689987410837704E-2</v>
+      </c>
+      <c r="J16">
+        <f>I16*I16</f>
+        <v>4.5819343956793671E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>0.2</v>
       </c>
       <c r="C17">
-        <f>((1-$B$2)*$B17)+($B$2*((B14*E6)+(B15*E7)+(B16*E8)+(B18*E10)))</f>
-        <v>0.2844444444444445</v>
+        <v>0.28111111111111098</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:I17" si="3">((1-$B$2)*C$17)+($B$2*((C14*$E$6)+(C15*$E$7)+(C16*$E$8)+(C18*$E$10)))</f>
-        <v>0.30129629629629634</v>
+        <v>0.292833333333333</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>0.30320987654320991</v>
+        <v>0.28871141975308601</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0.30241169410150892</v>
+        <v>0.28160297839506099</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0.30149834247828078</v>
+        <v>0.27437121562071298</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
-        <v>0.30087125866864806</v>
+        <v>0.26751476825703002</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0.30049249616843637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.26102857079620601</v>
+      </c>
+      <c r="J17">
+        <f>I17*I17</f>
+        <v>6.8135914771909931E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>0.2</v>
       </c>
       <c r="C18">
-        <f>((1-$B$2)*$B18)+($B$2*((B14*F6)+(B15*F7)+(B17*F9)))</f>
-        <v>0.15888888888888891</v>
+        <v>0.158888888888889</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:I18" si="4">((1-$B$2)*C$18)+($B$2*((C14*$F$6)+(C15*$F$7)+(C17*$F$9)))</f>
-        <v>0.14833333333333334</v>
+        <v>0.14598148148148099</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>0.14674382716049383</v>
+        <v>0.14129907407407399</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
-        <v>0.14736711248285322</v>
+        <v>0.13865879115226301</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
-        <v>0.14824752800640145</v>
+        <v>0.136289298611111</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
-        <v>0.14892602833028501</v>
+        <v>0.133783662069902</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
-        <v>0.1493696141790081</v>
+        <v>0.13111952516711001</v>
+      </c>
+      <c r="J18">
+        <f>I18*I18</f>
+        <v>1.7192329880048395E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2101,25 +2135,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="K1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="K1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2192,28 +2226,28 @@
         <v>18</v>
       </c>
       <c r="L3">
-        <f>((B11*B11)+(B12*B12)+(B14*B14)*USERRANK!I14)</f>
-        <v>2.5277752375146063</v>
+        <f>((B11*B11*USERRANK!J14)+(B12*B12*USERRANK!J15)+(B14*B14*USERRANK!J16))</f>
+        <v>0.10210826241308987</v>
       </c>
       <c r="M3">
-        <f>(B14*C14*USERRANK!I14)</f>
-        <v>0.11110095005842609</v>
+        <f>(B14*C14*USERRANK!J17)</f>
+        <v>3.0282628787515541E-2</v>
       </c>
       <c r="N3">
-        <f>((B11*D11)+(B12*D12)+(B14*D14)*USERRANK!I14)</f>
-        <v>-0.97222476248539347</v>
+        <f>((B11*D11*USERRANK!J14)+(B12*D12*USERRANK!J15)+(B14*D14*USERRANK!J17))</f>
+        <v>-3.2094337617240856E-2</v>
       </c>
       <c r="O3">
-        <f>((B11*E11)+(B14*E14)*USERRANK!I14)</f>
-        <v>0.69444952497078694</v>
+        <f>((B11*E11*USERRANK!J14)+(B14*E14*USERRANK!J17))</f>
+        <v>1.5825767494856223E-2</v>
       </c>
       <c r="P3">
-        <f>((B11*F11)+(B12*F12)+(B14*F14)*USERRANK!I14)</f>
-        <v>-2.1388761875730324</v>
+        <f>((B11*F11*USERRANK!J14)+(B12*F12*USERRANK!J15)+(B14*F14*USERRANK!J17))</f>
+        <v>-0.12205661872473061</v>
       </c>
       <c r="Q3">
-        <f>((B12*G12)+(B14*G14)*USERRANK!I14)</f>
-        <v>-0.22222476248539347</v>
+        <f>((B12*G12*USERRANK!J15)+(B14*G14*USERRANK!J17))</f>
+        <v>-1.1272557286268695E-3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2246,28 +2280,28 @@
         <v>19</v>
       </c>
       <c r="L4">
-        <f>(C14*B14)</f>
-        <v>0.4444444444444447</v>
+        <f>(C14*B14*USERRANK!J17)</f>
+        <v>3.0282628787515541E-2</v>
       </c>
       <c r="M4">
-        <f>((C13*C13)+(C14*C14))</f>
-        <v>2.7777777777777781</v>
+        <f>((C13*C13*USERRANK!J16)+(C14*C14*USERRANK!J17))</f>
+        <v>0.12571244954574148</v>
       </c>
       <c r="N4">
-        <f>(C14*D14)</f>
-        <v>0.4444444444444447</v>
+        <f>(C14*D14*USERRANK!J17)</f>
+        <v>3.0282628787515541E-2</v>
       </c>
       <c r="O4">
-        <f>((C13*E13)+(C14*E14))</f>
-        <v>-1.8888888888888888</v>
+        <f>((C13*E13*USERRANK!J16)+(C14*E14*USERRANK!J17))</f>
+        <v>-6.5147191970710422E-2</v>
       </c>
       <c r="P4">
-        <f>(C14*F14)</f>
-        <v>-2.2222222222222223</v>
+        <f>(C14*F14*USERRANK!J17)</f>
+        <v>-0.15141314393757763</v>
       </c>
       <c r="Q4">
-        <f>(C14*G14)</f>
-        <v>0.4444444444444447</v>
+        <f>(C14*G14*USERRANK!J17)</f>
+        <v>3.0282628787515541E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2300,28 +2334,28 @@
         <v>20</v>
       </c>
       <c r="L5">
-        <f>((D11*B11)+(D12*B12)+(D14*B14))</f>
-        <v>-0.88888888888888884</v>
+        <f>((D11*B11*USERRANK!J14)+(D12*B12*USERRANK!J15)+(D14*B14*USERRANK!J17))</f>
+        <v>-3.2094337617240856E-2</v>
       </c>
       <c r="M5">
-        <f>(D14*C14)</f>
-        <v>0.4444444444444447</v>
+        <f>(D14*C14*USERRANK!J17)</f>
+        <v>3.0282628787515541E-2</v>
       </c>
       <c r="N5">
-        <f>((D11*D11)+(D12*D12)+(D14*D14)+(D15*D15))</f>
-        <v>0.86111111111111116</v>
+        <f>((D11*D11*USERRANK!JJ14)+(D12*D12*USERRANK!J15)+(D14*D14*USERRANK!J17)+(D15*D15*USERRANK!J18))</f>
+        <v>2.0566652592396747E-2</v>
       </c>
       <c r="O5">
-        <f>((D11*E11)+(D14*E14))</f>
-        <v>-0.47222222222222227</v>
+        <f>((D11*E11*USERRANK!J14)+(D14*E14*USERRANK!J17))</f>
+        <v>-2.5463675023295759E-2</v>
       </c>
       <c r="P5">
-        <f>((D11*F11)+(D12*F12)+(D14*F14)+(D15*F15))</f>
-        <v>-0.3055555555555558</v>
+        <f>((D11*F11*USERRANK!J14)+(D12*F12*USERRANK!J15)+(D14*F14*USERRANK!J17)+(D15*F15*USERRANK!J18))</f>
+        <v>-1.988219949129829E-2</v>
       </c>
       <c r="Q5">
-        <f>((D12*G12)+(D14*G14))</f>
-        <v>0.36111111111111122</v>
+        <f>((D12*G12*USERRANK!J15)+(D14*G14*USERRANK!J17))</f>
+        <v>1.6268570122384647E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2354,28 +2388,28 @@
         <v>21</v>
       </c>
       <c r="L6">
-        <f>((E11*B11)+(E14*B14))</f>
-        <v>0.52777777777777768</v>
+        <f>((E11*B11*USERRANK!J14)+(E14*B14*USERRANK!J17))</f>
+        <v>1.5825767494856223E-2</v>
       </c>
       <c r="M6">
-        <f>((E13*C13)+(E14*C14))</f>
-        <v>-1.8888888888888888</v>
+        <f>((E13*C13*USERRANK!J16)+(E14*C14*USERRANK!J17))</f>
+        <v>-6.5147191970710422E-2</v>
       </c>
       <c r="N6">
-        <f>((E11*D11)+(E14*D14))</f>
-        <v>-0.47222222222222227</v>
+        <f>((E11*D11*USERRANK!J14)+(E14*D14*USERRANK!J17))</f>
+        <v>-2.5463675023295759E-2</v>
       </c>
       <c r="O6">
-        <f>((E11*E11)+(E13*E13)+(E14*E14))</f>
-        <v>1.6944444444444442</v>
+        <f>((E11*E11*USERRANK!J14)+(E13*E13*USERRANK!J16)+(E14*E14*USERRANK!J17))</f>
+        <v>4.5186923812732871E-2</v>
       </c>
       <c r="P6">
-        <f>((E11*F11)+(E14*F14))</f>
-        <v>0.36111111111111072</v>
+        <f>((E11*F11*USERRANK!J14)+(E14*F14*USERRANK!J17))</f>
+        <v>4.4739490080174797E-2</v>
       </c>
       <c r="Q6">
-        <f>(E14*G14)</f>
-        <v>-0.22222222222222227</v>
+        <f>(E14*G14*USERRANK!J17)</f>
+        <v>-1.5141314393757765E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2408,28 +2442,28 @@
         <v>22</v>
       </c>
       <c r="L7">
-        <f>((F11*B11)+(F12*B12)+(F14*B14))</f>
-        <v>-2.5555555555555558</v>
+        <f>((F11*B11*USERRANK!J14)+(F12*B12*USERRANK!J15)+(F14*B14*USERRANK!J17))</f>
+        <v>-0.12205661872473061</v>
       </c>
       <c r="M7">
-        <f>(F14*C14)</f>
-        <v>-2.2222222222222223</v>
+        <f>(F14*C14*USERRANK!I17)</f>
+        <v>-0.58006349065823559</v>
       </c>
       <c r="N7">
-        <f>((F11*D11)+(F12*D12)+(F14*D14)+(F15*D15))</f>
-        <v>-0.3055555555555558</v>
+        <f>((F11*D11*USERRANK!I14)+(F12*D12*USERRANK!I15)+(F14*D14*USERRANK!I17)+(F15*D15*USERRANK!I18))</f>
+        <v>-7.2028526677315213E-2</v>
       </c>
       <c r="O7">
-        <f>((F11*E11)+(F14*E14))</f>
-        <v>0.36111111111111072</v>
+        <f>((F11*E11*USERRANK!I14)+(F14*E14*USERRANK!I17))</f>
+        <v>0.13763321706699669</v>
       </c>
       <c r="P7">
-        <f>((F11*F11)+(F12*F12)+(F14*F14)+(F15*F15))</f>
-        <v>5.5277777777777768</v>
+        <f>((F11*F11*USERRANK!I14)+(F12*F12*USERRANK!I15)+(F14*F14*USERRANK!I17)+(F15*F15*USERRANK!I18))</f>
+        <v>1.2616861303840343</v>
       </c>
       <c r="Q7">
-        <f>((F12*G12)+(F14*G14))</f>
-        <v>-0.8055555555555558</v>
+        <f>((F12*G12*USERRANK!I15)+(F14*G14*USERRANK!I18))</f>
+        <v>-0.11947548163149424</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2437,37 +2471,37 @@
         <v>23</v>
       </c>
       <c r="L8">
-        <f>((G12*B12)+(G14*B14))</f>
-        <v>-0.13888888888888878</v>
+        <f>((G12*B12*USERRANK!J15)+(G14*B14*USERRANK!J17))</f>
+        <v>-1.1272557286268695E-3</v>
       </c>
       <c r="M8">
-        <f>(G14*C14)</f>
-        <v>0.4444444444444447</v>
+        <f>(G14*C14*USERRANK!J17)</f>
+        <v>3.0282628787515541E-2</v>
       </c>
       <c r="N8">
-        <f>((G12*D12)+(G14*D14))</f>
-        <v>0.36111111111111122</v>
+        <f>((G12*D12*USERRANK!J15)+(G14*D14*USERRANK!J17))</f>
+        <v>1.6268570122384647E-2</v>
       </c>
       <c r="O8">
-        <f>(G14*E14)</f>
-        <v>-0.22222222222222227</v>
+        <f>(G14*E14*USERRANK!J17)</f>
+        <v>-1.5141314393757765E-2</v>
       </c>
       <c r="P8">
-        <f>((G12*F12)+(G14*F14))</f>
-        <v>-0.8055555555555558</v>
+        <f>((G12*F12*USERRANK!J15)+(G14*F14*USERRANK!J17))</f>
+        <v>-4.6551198909900178E-2</v>
       </c>
       <c r="Q8">
-        <f>((G12*G12)+(G14*G14))</f>
-        <v>0.36111111111111122</v>
+        <f>((G12*G12*USERRANK!J15)+(G14*G14*USERRANK!J17))</f>
+        <v>1.6268570122384647E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2488,11 +2522,11 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="K10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2558,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:J12" si="0">F$4-$H$4</f>
+        <f t="shared" ref="F12:G12" si="0">F$4-$H$4</f>
         <v>-0.5</v>
       </c>
       <c r="G12">
@@ -2569,28 +2603,28 @@
         <v>18</v>
       </c>
       <c r="L12">
-        <f>SQRT((B11*B11)+(B12*B12)+(B14*B14))</f>
-        <v>1.6158932858054431</v>
+        <f>SQRT((B11*B11*USERRANK!J14)+(B12*B12*USERRANK!J15)+(B14*B14*USERRANK!J17))</f>
+        <v>0.33040855889069609</v>
       </c>
       <c r="M12">
-        <f>SQRT(B14*B14)</f>
-        <v>0.33333333333333348</v>
+        <f>SQRT(B14*B14*USERRANK!J17)</f>
+        <v>8.7009523598735372E-2</v>
       </c>
       <c r="N12">
-        <f>SQRT((B11*B11)+(B12*B12)+(B14*B14))</f>
-        <v>1.6158932858054431</v>
+        <f>SQRT((B11*B11*USERRANK!J14)+(B12*B12*USERRANK!J15)+(B14*B14*USERRANK!J17))</f>
+        <v>0.33040855889069609</v>
       </c>
       <c r="O12">
-        <f>SQRT((B11*B11)+(B14*B14))</f>
-        <v>1.5365907428821479</v>
+        <f>SQRT((B11*B11*USERRANK!J14)+(B14*B14*USERRANK!J17))</f>
+        <v>0.31697303175936092</v>
       </c>
       <c r="P12">
-        <f>SQRT((B11*B11)+(B12*B12)+(B14*B14))</f>
-        <v>1.6158932858054431</v>
+        <f>SQRT((B11*B11*USERRANK!J14)+(B12*B12*USERRANK!J15)+(B14*B14*USERRANK!J17))</f>
+        <v>0.33040855889069609</v>
       </c>
       <c r="Q12">
-        <f>SQRT((B12*B12)+(B14*B14))</f>
-        <v>0.60092521257733167</v>
+        <f>SQRT((B12*B12*USERRANK!J15)+(B14*B14*USERRANK!J17))</f>
+        <v>0.12754830505492673</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2601,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:G13" si="1">C$5-$H$5</f>
+        <f t="shared" ref="C13:E13" si="1">C$5-$H$5</f>
         <v>1</v>
       </c>
       <c r="D13">
@@ -2621,28 +2655,28 @@
         <v>19</v>
       </c>
       <c r="L13">
-        <f>SQRT(C14*C14)</f>
-        <v>1.3333333333333335</v>
+        <f>SQRT(C14*C14*USERRANK!J17)</f>
+        <v>0.34803809439494138</v>
       </c>
       <c r="M13">
-        <f>SQRT((C13*C13)+(C14*C14))</f>
-        <v>1.6666666666666667</v>
+        <f>SQRT((C13*C13*USERRANK!J16)+(C14*C14*USERRANK!J17))</f>
+        <v>0.35455951481484949</v>
       </c>
       <c r="N13">
-        <f>SQRT(C14*C14)</f>
-        <v>1.3333333333333335</v>
+        <f>SQRT(C14*C14*USERRANK!J17)</f>
+        <v>0.34803809439494138</v>
       </c>
       <c r="O13">
-        <f>SQRT((C13*C13)+(C14*C14))</f>
-        <v>1.6666666666666667</v>
+        <f>SQRT((C13*C13*USERRANK!J16)+(C14*C14*USERRANK!J17))</f>
+        <v>0.35455951481484949</v>
       </c>
       <c r="P13">
-        <f>SQRT(C14*C14)</f>
-        <v>1.3333333333333335</v>
+        <f>SQRT(C14*C14*USERRANK!J17)</f>
+        <v>0.34803809439494138</v>
       </c>
       <c r="Q13">
-        <f>SQRT(C14*C14)</f>
-        <v>1.3333333333333335</v>
+        <f>SQRT(C14*C14*USERRANK!J17)</f>
+        <v>0.34803809439494138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2677,28 +2711,28 @@
         <v>20</v>
       </c>
       <c r="L14">
-        <f>SQRT((D11*D11)+(D12*D12)+(D14*D14))</f>
-        <v>0.78173595997057166</v>
+        <f>SQRT((D11*D11*USERRANK!J14)+(D12*D12*USERRANK!J15)+(D14*D14*USERRANK!J17))</f>
+        <v>0.16306725836881739</v>
       </c>
       <c r="M14">
-        <f>SQRT(D14*D14)</f>
-        <v>0.33333333333333348</v>
+        <f>SQRT(D14*D14*USERRANK!J17)</f>
+        <v>8.7009523598735372E-2</v>
       </c>
       <c r="N14">
-        <f>SQRT((D11*D11)+(D12*D12)+(D14*D14)+(D15*D15))</f>
-        <v>0.92796072713833699</v>
+        <f>SQRT((D11*D11*USERRANK!J14)+(D12*D12*USERRANK!J15)+(D14*D14*USERRANK!J17)+(D15*D15*USERRANK!J18))</f>
+        <v>0.1757527047357586</v>
       </c>
       <c r="O14">
-        <f>SQRT((D11*D11)+(D14*D14))</f>
-        <v>0.60092521257733167</v>
+        <f>SQRT((D11*D11*USERRANK!J14)+(D14*D14*USERRANK!J17))</f>
+        <v>0.13376478544974713</v>
       </c>
       <c r="P14">
-        <f>SQRT((D11*D11)+(D12*D12)+(D14*D14)+(D15*D15))</f>
-        <v>0.92796072713833699</v>
+        <f>SQRT((D11*D11*USERRANK!J14)+(D12*D12*USERRANK!J15)+(D14*D14*USERRANK!J17)+(D15*D15*USERRANK!J18))</f>
+        <v>0.1757527047357586</v>
       </c>
       <c r="Q14">
-        <f>SQRT((D12*D12)+(D14*D14))</f>
-        <v>0.60092521257733167</v>
+        <f>SQRT((D12*D12*USERRANK!J15)+(D14*D14*USERRANK!J17))</f>
+        <v>0.12754830505492673</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2712,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:H15" si="3">D$7-$H$7</f>
+        <f t="shared" ref="D15:F15" si="3">D$7-$H$7</f>
         <v>0.5</v>
       </c>
       <c r="E15">
@@ -2729,28 +2763,28 @@
         <v>21</v>
       </c>
       <c r="L15">
-        <f>SQRT((E11*E11)+(E14*E14))</f>
-        <v>0.83333333333333315</v>
+        <f>SQRT((E11*E11*USERRANK!J17)+(E14*E14*USERRANK!J17))</f>
+        <v>0.21752380899683829</v>
       </c>
       <c r="M15">
-        <f>SQRT((E13*E13)+(E14*E14))</f>
-        <v>1.2018504251546629</v>
+        <f>SQRT((E13*E13*USERRANK!J16)+(E14*E14*USERRANK!J17))</f>
+        <v>0.18672054836893254</v>
       </c>
       <c r="N15">
-        <f>SQRT((E11*E11)+(E14*E14))</f>
-        <v>0.83333333333333315</v>
+        <f>SQRT((E11*E11*USERRANK!J17)+(E14*E14*USERRANK!J17))</f>
+        <v>0.21752380899683829</v>
       </c>
       <c r="O15">
-        <f>SQRT((E11*E11)+(E13*E13)+(E14*E14))</f>
-        <v>1.3017082793177757</v>
+        <f>SQRT((E11*E11*USERRANK!J17)+(E13*E13*USERRANK!J17)+(E14*E14*USERRANK!J17))</f>
+        <v>0.33978305174390749</v>
       </c>
       <c r="P15">
-        <f>SQRT((E11*E11)+(E14*E14))</f>
-        <v>0.83333333333333315</v>
+        <f>SQRT((E11*E11*USERRANK!J17)+(E14*E14*USERRANK!J17))</f>
+        <v>0.21752380899683829</v>
       </c>
       <c r="Q15">
-        <f>SQRT(G14*G14)</f>
-        <v>0.33333333333333348</v>
+        <f>SQRT(G14*G14*USERRANK!J17)</f>
+        <v>8.7009523598735372E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2758,67 +2792,67 @@
         <v>22</v>
       </c>
       <c r="L16">
-        <f>SQRT((F11*F11)+(F12*F12)+(F14*F14))</f>
-        <v>2.2973414586817036</v>
+        <f>SQRT((F11*F11*USERRANK!J14)+(F12*F12*USERRANK!J15)+(F14*F14*USERRANK!J17))</f>
+        <v>0.53931956066261832</v>
       </c>
       <c r="M16">
-        <f>SQRT(F14*F14)</f>
-        <v>1.6666666666666665</v>
+        <f>SQRT(F14*F14*USERRANK!J17)</f>
+        <v>0.43504761799367664</v>
       </c>
       <c r="N16">
-        <f>SQRT((F11*F11)+(F12*F12)+(F14*F14)+(F15*F15))</f>
-        <v>2.3511226632776472</v>
+        <f>SQRT((F11*F11*USERRANK!J14)+(F12*F12*USERRANK!J15)+(F14*F14*USERRANK!J17)+(F15*F15*USERRANK!J18))</f>
+        <v>0.54328967501999503</v>
       </c>
       <c r="O16">
-        <f>SQRT((F11*F11)+(F14*F14))</f>
-        <v>2.2422706745122847</v>
+        <f>SQRT((F11*F11*USERRANK!J14)+(F14*F14*USERRANK!J17))</f>
+        <v>0.53119457413250559</v>
       </c>
       <c r="P16">
-        <f>SQRT((F11*F11)+(F12*F12)+(F14*F14)+(F15*F15))</f>
-        <v>2.3511226632776472</v>
+        <f>SQRT((F11*F11*USERRANK!J14)+(F12*F12*USERRANK!J15)+(F14*F14*USERRANK!J17)+(F15*F15*USERRANK!J18))</f>
+        <v>0.54328967501999503</v>
       </c>
       <c r="Q16">
-        <f>SQRT((F12*F12)+(F14*F14))</f>
-        <v>1.740051084818425</v>
+        <f>SQRT((F12*F12*USERRANK!J16)+(F14*F14*USERRANK!J17))</f>
+        <v>0.43636213575525984</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="H17" s="6" t="s">
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="H17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
       <c r="K17" t="s">
         <v>23</v>
       </c>
       <c r="L17">
-        <f>SQRT((G12*G12)+(G14*G14))</f>
-        <v>0.60092521257733167</v>
+        <f>SQRT((G12*G12*USERRANK!J15)+(G14*G14*USERRANK!J17))</f>
+        <v>0.12754830505492673</v>
       </c>
       <c r="M17">
-        <f>SQRT(G14*G14)</f>
-        <v>0.33333333333333348</v>
+        <f>SQRT(G14*G14*USERRANK!J17)</f>
+        <v>8.7009523598735372E-2</v>
       </c>
       <c r="N17">
-        <f>SQRT((G12*G12)+(G14*G14))</f>
-        <v>0.60092521257733167</v>
+        <f>SQRT((G12*G12*USERRANK!J15)+(G14*G14*USERRANK!J17))</f>
+        <v>0.12754830505492673</v>
       </c>
       <c r="O17">
-        <f>SQRT(G14*G14)</f>
-        <v>0.33333333333333348</v>
+        <f>SQRT(G14*G14*USERRANK!J17)</f>
+        <v>8.7009523598735372E-2</v>
       </c>
       <c r="P17">
-        <f>SQRT((G12*G12)+(G14*G14))</f>
-        <v>0.60092521257733167</v>
+        <f>SQRT((G12*G12*USERRANK!J15)+(G14*G14*USERRANK!J17))</f>
+        <v>0.12754830505492673</v>
       </c>
       <c r="Q17">
-        <f>SQRT((G12*G12)+(G14*G14))</f>
-        <v>0.60092521257733167</v>
+        <f>SQRT((G12*G12*USERRANK!J15)+(G14*G14*USERRANK!J17))</f>
+        <v>0.12754830505492673</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2850,36 +2884,36 @@
       </c>
       <c r="B19">
         <f>L$3/(L$12*L$21)</f>
-        <v>0.96808413351623201</v>
+        <v>0.93531588082153505</v>
       </c>
       <c r="C19" s="6">
         <f>M$3/(M$12*M$21)</f>
-        <v>0.24997713763145857</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f>N$3/(N$12*N$21)</f>
-        <v>-0.64837222966884511</v>
+        <v>-0.59567635118888429</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:F19" si="4">O$3/(O$12*O$21)</f>
-        <v>0.54233011218190008</v>
+        <v>0.22952799751047603</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>-0.57616572442281067</v>
+        <v>-0.68495789200931267</v>
       </c>
       <c r="G19">
         <f>Q$3/(Q$12*Q$21)</f>
-        <v>-0.61539164995955087</v>
+        <v>-6.929039984133753E-2</v>
       </c>
       <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2899,7 +2933,7 @@
       </c>
       <c r="E20">
         <f>O$4/(O$13*O$22)</f>
-        <v>-0.94299033358288953</v>
+        <v>-0.9840438297909917</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
@@ -2937,7 +2971,7 @@
       </c>
       <c r="B21">
         <f>L$5/(L$14*L$23)</f>
-        <v>-0.70367919541366775</v>
+        <v>-0.59567635118888429</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ref="C21:G21" si="6">M$5/(M$14*M$23)</f>
@@ -2945,19 +2979,19 @@
       </c>
       <c r="D21">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.66582420243169382</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>-0.94299033358288964</v>
+        <v>-0.87512982728038236</v>
       </c>
       <c r="F21">
         <f t="shared" si="6"/>
-        <v>-0.14005070521928906</v>
+        <v>-0.20822408302426165</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="6"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>35</v>
@@ -2966,24 +3000,28 @@
         <v>18</v>
       </c>
       <c r="L21">
-        <f>SQRT((B11*B11)+(B12*B12)+(B14*B14))</f>
-        <v>1.6158932858054431</v>
+        <f>L12</f>
+        <v>0.33040855889069609</v>
       </c>
       <c r="M21">
-        <f>SQRT(C14*C14)</f>
-        <v>1.3333333333333335</v>
+        <f>L13</f>
+        <v>0.34803809439494138</v>
       </c>
       <c r="N21">
-        <v>0.92796072713833699</v>
+        <f>L14</f>
+        <v>0.16306725836881739</v>
       </c>
       <c r="O21">
-        <v>0.83333333333333315</v>
+        <f>L15</f>
+        <v>0.21752380899683829</v>
       </c>
       <c r="P21">
-        <v>2.2973414586817036</v>
+        <f>L16</f>
+        <v>0.53931956066261832</v>
       </c>
       <c r="Q21">
-        <v>0.60092521257733167</v>
+        <f>L17</f>
+        <v>0.12754830505492673</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2992,27 +3030,27 @@
       </c>
       <c r="B22" s="6">
         <f>L$6/(L$15*L$24)</f>
-        <v>0.41216786985544668</v>
+        <v>0.22952799751047603</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:G22" si="7">M$6/(M$15*M$24)</f>
-        <v>-0.94299033358288953</v>
+        <v>-0.9840438297909917</v>
       </c>
       <c r="D22">
         <f t="shared" si="7"/>
-        <v>-0.94299033358288964</v>
+        <v>-0.87512982728038236</v>
       </c>
       <c r="E22">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>O$6/(O$15*O$24)</f>
+        <v>0.39138966331064623</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="7"/>
-        <v>0.1932564780242631</v>
+        <f>P$6/(P$15*P$24)</f>
+        <v>0.38719576646145631</v>
       </c>
       <c r="G22">
         <f t="shared" si="7"/>
-        <v>-1.9999999999999984</v>
+        <v>-1.9999999999999987</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -3021,22 +3059,28 @@
         <v>19</v>
       </c>
       <c r="L22">
-        <v>0.33333333333333348</v>
+        <f>M12</f>
+        <v>8.7009523598735372E-2</v>
       </c>
       <c r="M22">
-        <v>1.6666666666666667</v>
+        <f>M13</f>
+        <v>0.35455951481484949</v>
       </c>
       <c r="N22">
-        <v>0.33333333333333348</v>
+        <f>M14</f>
+        <v>8.7009523598735372E-2</v>
       </c>
       <c r="O22">
-        <v>1.2018504251546629</v>
+        <f>M15</f>
+        <v>0.18672054836893254</v>
       </c>
       <c r="P22">
-        <v>1.6666666666666665</v>
+        <f>M16</f>
+        <v>0.43504761799367664</v>
       </c>
       <c r="Q22">
-        <v>0.33333333333333348</v>
+        <f>M17</f>
+        <v>8.7009523598735372E-2</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3045,27 +3089,27 @@
       </c>
       <c r="B23">
         <f>L$7/(L$16*L$25)</f>
-        <v>-0.68840988857805441</v>
+        <v>-0.68495789200931267</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23:G23" si="8">M$7/(M$16*M$25)</f>
-        <v>-1</v>
+        <v>-3.8309982579674564</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="8"/>
-        <v>-0.14005070521928906</v>
+        <v>-0.75434681789289126</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="8"/>
-        <v>0.1932564780242631</v>
+        <v>1.1911400616616854</v>
       </c>
       <c r="F23">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4.2745305551348931</v>
       </c>
       <c r="G23">
         <f t="shared" si="8"/>
-        <v>-0.77039432112468986</v>
+        <v>-2.146629233422205</v>
       </c>
       <c r="H23" t="s">
         <v>37</v>
@@ -3074,22 +3118,28 @@
         <v>20</v>
       </c>
       <c r="L23">
-        <v>1.6158932858054431</v>
+        <f>N12</f>
+        <v>0.33040855889069609</v>
       </c>
       <c r="M23">
-        <v>1.3333333333333335</v>
+        <f>N13</f>
+        <v>0.34803809439494138</v>
       </c>
       <c r="N23">
-        <v>0.92796072713833699</v>
+        <f>N14</f>
+        <v>0.1757527047357586</v>
       </c>
       <c r="O23">
-        <v>0.83333333333333315</v>
+        <f>N15</f>
+        <v>0.21752380899683829</v>
       </c>
       <c r="P23">
-        <v>2.3511226632776472</v>
+        <f>N16</f>
+        <v>0.54328967501999503</v>
       </c>
       <c r="Q23">
-        <v>0.60092521257733167</v>
+        <f>N17</f>
+        <v>0.12754830505492673</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3098,7 +3148,7 @@
       </c>
       <c r="B24">
         <f>L$8/(L$17*L$26)</f>
-        <v>-0.38461538461538397</v>
+        <v>-6.929039984133753E-2</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" ref="C24:G24" si="9">M$8/(M$17*M$26)</f>
@@ -3106,43 +3156,49 @@
       </c>
       <c r="D24" s="6">
         <f t="shared" si="9"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="9"/>
-        <v>-1.9999999999999984</v>
+        <v>-1.9999999999999987</v>
       </c>
       <c r="F24">
         <f t="shared" si="9"/>
-        <v>-0.77039432112468986</v>
+        <v>-0.8363905553363522</v>
       </c>
       <c r="G24">
         <f t="shared" si="9"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
       </c>
       <c r="L24">
-        <v>1.5365907428821479</v>
+        <f>O12</f>
+        <v>0.31697303175936092</v>
       </c>
       <c r="M24">
-        <v>1.6666666666666667</v>
+        <f>O13</f>
+        <v>0.35455951481484949</v>
       </c>
       <c r="N24">
-        <v>0.60092521257733167</v>
+        <f>O14</f>
+        <v>0.13376478544974713</v>
       </c>
       <c r="O24">
-        <v>1.3017082793177757</v>
+        <f>O15</f>
+        <v>0.33978305174390749</v>
       </c>
       <c r="P24">
-        <v>2.2422706745122847</v>
+        <f>O16</f>
+        <v>0.53119457413250559</v>
       </c>
       <c r="Q24">
-        <v>0.33333333333333348</v>
+        <f>O17</f>
+        <v>8.7009523598735372E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3150,49 +3206,114 @@
         <v>22</v>
       </c>
       <c r="L25">
-        <v>1.6158932858054431</v>
+        <f>P12</f>
+        <v>0.33040855889069609</v>
       </c>
       <c r="M25">
-        <v>1.3333333333333335</v>
+        <f>P13</f>
+        <v>0.34803809439494138</v>
       </c>
       <c r="N25">
-        <v>0.92796072713833699</v>
+        <f>P14</f>
+        <v>0.1757527047357586</v>
       </c>
       <c r="O25">
-        <v>0.83333333333333315</v>
+        <f>P15</f>
+        <v>0.21752380899683829</v>
       </c>
       <c r="P25">
-        <v>2.3511226632776472</v>
+        <f>P16</f>
+        <v>0.54328967501999503</v>
       </c>
       <c r="Q25">
-        <v>0.60092521257733167</v>
+        <f>P17</f>
+        <v>0.12754830505492673</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="8"/>
       <c r="K26" t="s">
         <v>23</v>
       </c>
       <c r="L26">
-        <v>0.600925212577332</v>
+        <f>Q12</f>
+        <v>0.12754830505492673</v>
       </c>
       <c r="M26">
-        <v>1.3333333333333335</v>
+        <f>Q13</f>
+        <v>0.34803809439494138</v>
       </c>
       <c r="N26">
-        <v>0.60092521257733167</v>
+        <f>Q14</f>
+        <v>0.12754830505492673</v>
       </c>
       <c r="O26">
-        <v>0.33333333333333348</v>
+        <f>Q15</f>
+        <v>8.7009523598735372E-2</v>
       </c>
       <c r="P26">
-        <v>1.740051084818425</v>
+        <f>Q16</f>
+        <v>0.43636213575525984</v>
       </c>
       <c r="Q26">
-        <v>0.60092521257733167</v>
+        <f>Q17</f>
+        <v>0.12754830505492673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f>((B20*B3)+(C21*D3))/(ABS(B20)+ABS(C21))</f>
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <f>((G21*D3)+(G19*B3))/(ABS(G21)+ABS(G19))</f>
+        <v>2.4815971425414918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3206,6 +3327,7 @@
     <mergeCell ref="K19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
